--- a/data/pca/factorExposure/factorExposure_2012-06-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-06-21.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01722124029848181</v>
+        <v>0.02228177790378306</v>
       </c>
       <c r="C2">
-        <v>0.0285954203713963</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.02326804785400796</v>
+      </c>
+      <c r="D2">
+        <v>0.003416368481300145</v>
+      </c>
+      <c r="E2">
+        <v>0.01962295694756422</v>
+      </c>
+      <c r="F2">
+        <v>-0.004791764511014095</v>
+      </c>
+      <c r="G2">
+        <v>0.009758325920939167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,21 +757,45 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.06682202342217054</v>
+        <v>0.07620091988606821</v>
       </c>
       <c r="C4">
-        <v>0.06239760708262244</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.04112292984950194</v>
+      </c>
+      <c r="D4">
+        <v>0.07119777794655371</v>
+      </c>
+      <c r="E4">
+        <v>-0.002699043229004693</v>
+      </c>
+      <c r="F4">
+        <v>-0.0282579215983154</v>
+      </c>
+      <c r="G4">
+        <v>-0.01196869606093043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -743,131 +803,275 @@
       <c r="C5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.09626798474157822</v>
+        <v>0.1159850064209799</v>
       </c>
       <c r="C6">
-        <v>0.07079810390550559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>-0.04693880871088004</v>
+      </c>
+      <c r="D6">
+        <v>0.01332580187452706</v>
+      </c>
+      <c r="E6">
+        <v>-0.00362818571621838</v>
+      </c>
+      <c r="F6">
+        <v>-0.0501777009703374</v>
+      </c>
+      <c r="G6">
+        <v>0.009081574124123136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.0438730590676859</v>
+        <v>0.05424689605038296</v>
       </c>
       <c r="C7">
-        <v>0.03565484504706576</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.02536673222766216</v>
+      </c>
+      <c r="D7">
+        <v>0.03395847626687574</v>
+      </c>
+      <c r="E7">
+        <v>0.02103375201433067</v>
+      </c>
+      <c r="F7">
+        <v>-0.03460441117646615</v>
+      </c>
+      <c r="G7">
+        <v>-0.03995971636460204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.03150360631907605</v>
+        <v>0.03535815176316656</v>
       </c>
       <c r="C8">
-        <v>0.02761481511860601</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0165842996039567</v>
+      </c>
+      <c r="D8">
+        <v>0.04107490221884671</v>
+      </c>
+      <c r="E8">
+        <v>0.003584277444797948</v>
+      </c>
+      <c r="F8">
+        <v>-0.04706743881908642</v>
+      </c>
+      <c r="G8">
+        <v>0.01926340116205942</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.06217444876662234</v>
+        <v>0.07184943338301793</v>
       </c>
       <c r="C9">
-        <v>0.04818722758440173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.02921145834751485</v>
+      </c>
+      <c r="D9">
+        <v>0.0704705939252756</v>
+      </c>
+      <c r="E9">
+        <v>0.01424712173660192</v>
+      </c>
+      <c r="F9">
+        <v>-0.03698587333160317</v>
+      </c>
+      <c r="G9">
+        <v>-0.006314576327842313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.02765903566721918</v>
+        <v>0.04009059974944296</v>
       </c>
       <c r="C10">
-        <v>0.03880218130953569</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>-0.03972157367903074</v>
+      </c>
+      <c r="D10">
+        <v>-0.1839981851560457</v>
+      </c>
+      <c r="E10">
+        <v>0.04955434646115876</v>
+      </c>
+      <c r="F10">
+        <v>-0.03757486240128209</v>
+      </c>
+      <c r="G10">
+        <v>-0.03436537280260273</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.06745557749478458</v>
+        <v>0.0753656980324961</v>
       </c>
       <c r="C11">
-        <v>0.05478787778691465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.0312295303002665</v>
+      </c>
+      <c r="D11">
+        <v>0.06822930487602856</v>
+      </c>
+      <c r="E11">
+        <v>-0.0105114635696654</v>
+      </c>
+      <c r="F11">
+        <v>-0.03753518819211185</v>
+      </c>
+      <c r="G11">
+        <v>-0.01907193472791861</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.05139915075151708</v>
+        <v>0.06125838736431038</v>
       </c>
       <c r="C12">
-        <v>0.05347353428949716</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.03542834520884548</v>
+      </c>
+      <c r="D12">
+        <v>0.05234905646959139</v>
+      </c>
+      <c r="E12">
+        <v>0.00856273211129297</v>
+      </c>
+      <c r="F12">
+        <v>-0.02913373194663287</v>
+      </c>
+      <c r="G12">
+        <v>-0.01965032135398655</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.05821556712486124</v>
+        <v>0.0643279729242414</v>
       </c>
       <c r="C13">
-        <v>0.055449321571069</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.0330434878104833</v>
+      </c>
+      <c r="D13">
+        <v>0.05086680097851142</v>
+      </c>
+      <c r="E13">
+        <v>0.004472088183707478</v>
+      </c>
+      <c r="F13">
+        <v>-0.01894068922999732</v>
+      </c>
+      <c r="G13">
+        <v>-0.006839543492753247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.03265693238278983</v>
+        <v>0.03790684005755633</v>
       </c>
       <c r="C14">
-        <v>0.02755361027326838</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.01902331072548061</v>
+      </c>
+      <c r="D14">
+        <v>0.009055043409394632</v>
+      </c>
+      <c r="E14">
+        <v>0.01073637591441985</v>
+      </c>
+      <c r="F14">
+        <v>-0.01538626332821447</v>
+      </c>
+      <c r="G14">
+        <v>0.003519638441728402</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03952257715072031</v>
+        <v>0.04115059198975667</v>
       </c>
       <c r="C15">
-        <v>0.01469497060344748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.00401229009796609</v>
+      </c>
+      <c r="D15">
+        <v>0.01768371020399105</v>
+      </c>
+      <c r="E15">
+        <v>0.0365157593353289</v>
+      </c>
+      <c r="F15">
+        <v>-0.001882274913046535</v>
+      </c>
+      <c r="G15">
+        <v>0.02080455161309407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0562938935094802</v>
+        <v>0.06208716231320462</v>
       </c>
       <c r="C16">
-        <v>0.04679635916006059</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.02770235787273739</v>
+      </c>
+      <c r="D16">
+        <v>0.06039073371678552</v>
+      </c>
+      <c r="E16">
+        <v>-0.0017210896197854</v>
+      </c>
+      <c r="F16">
+        <v>-0.03131728030347887</v>
+      </c>
+      <c r="G16">
+        <v>-0.006625475418030781</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -875,10 +1079,22 @@
       <c r="C17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -886,10 +1102,22 @@
       <c r="C18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.06139459041515046</v>
+        <v>0.06165755424262982</v>
       </c>
       <c r="C20">
-        <v>0.03863575084549741</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.01738634593505064</v>
+      </c>
+      <c r="D20">
+        <v>0.04874692917140935</v>
+      </c>
+      <c r="E20">
+        <v>0.01608718131637546</v>
+      </c>
+      <c r="F20">
+        <v>-0.02854368236129279</v>
+      </c>
+      <c r="G20">
+        <v>-0.01955023689227576</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.02630775811539698</v>
+        <v>0.02403893495980614</v>
       </c>
       <c r="C21">
-        <v>0.001475108133092011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>0.009670393804534053</v>
+      </c>
+      <c r="D21">
+        <v>0.03001803805298803</v>
+      </c>
+      <c r="E21">
+        <v>0.09159280652244389</v>
+      </c>
+      <c r="F21">
+        <v>-0.002102054279724844</v>
+      </c>
+      <c r="G21">
+        <v>0.01082133902107794</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.0680504226504199</v>
+        <v>0.06382979512162483</v>
       </c>
       <c r="C22">
-        <v>0.07579112293746493</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04371126152079365</v>
+      </c>
+      <c r="D22">
+        <v>0.104352255880269</v>
+      </c>
+      <c r="E22">
+        <v>0.6154676298603734</v>
+      </c>
+      <c r="F22">
+        <v>0.1221662255059672</v>
+      </c>
+      <c r="G22">
+        <v>-0.01506361412666488</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.06867820459470143</v>
+        <v>0.06447605005551807</v>
       </c>
       <c r="C23">
-        <v>0.07541162947878127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04322079833194376</v>
+      </c>
+      <c r="D23">
+        <v>0.1052742542469922</v>
+      </c>
+      <c r="E23">
+        <v>0.6146911855099271</v>
+      </c>
+      <c r="F23">
+        <v>0.121821906735815</v>
+      </c>
+      <c r="G23">
+        <v>-0.01318520060724838</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06444051534582261</v>
+        <v>0.07395952070182671</v>
       </c>
       <c r="C24">
-        <v>0.05445629814501528</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.03302301681534674</v>
+      </c>
+      <c r="D24">
+        <v>0.06545430060225162</v>
+      </c>
+      <c r="E24">
+        <v>0.006262667330019769</v>
+      </c>
+      <c r="F24">
+        <v>-0.04404750530035984</v>
+      </c>
+      <c r="G24">
+        <v>-0.00748197712406401</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.06315889403147777</v>
+        <v>0.07157223651195219</v>
       </c>
       <c r="C25">
-        <v>0.0595962760787981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.03817630880307889</v>
+      </c>
+      <c r="D25">
+        <v>0.06557647996729911</v>
+      </c>
+      <c r="E25">
+        <v>0.006698661126553465</v>
+      </c>
+      <c r="F25">
+        <v>-0.038827511827266</v>
+      </c>
+      <c r="G25">
+        <v>0.0023267053473011</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.03872356836550618</v>
+        <v>0.04107504443046469</v>
       </c>
       <c r="C26">
-        <v>0.01577500933477727</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.005688383742750838</v>
+      </c>
+      <c r="D26">
+        <v>0.02214715794290625</v>
+      </c>
+      <c r="E26">
+        <v>0.03740628834828044</v>
+      </c>
+      <c r="F26">
+        <v>-0.0224118693735605</v>
+      </c>
+      <c r="G26">
+        <v>-0.01613304603916893</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,109 +1309,229 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.0506096117487967</v>
+        <v>0.07509061169809113</v>
       </c>
       <c r="C28">
-        <v>0.07387412978350544</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>-0.07462506827092119</v>
+      </c>
+      <c r="D28">
+        <v>-0.3224974483789864</v>
+      </c>
+      <c r="E28">
+        <v>0.0401815506186156</v>
+      </c>
+      <c r="F28">
+        <v>-0.05013478810974192</v>
+      </c>
+      <c r="G28">
+        <v>0.02927654522756953</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.03456947789354355</v>
+        <v>0.04251762548327224</v>
       </c>
       <c r="C29">
-        <v>0.03200082962242677</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.02436441420665303</v>
+      </c>
+      <c r="D29">
+        <v>0.009353517950561061</v>
+      </c>
+      <c r="E29">
+        <v>0.03659312191677905</v>
+      </c>
+      <c r="F29">
+        <v>-0.01340233656257755</v>
+      </c>
+      <c r="G29">
+        <v>-0.01135334378683063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.1139529520304045</v>
+        <v>0.1304454251362455</v>
       </c>
       <c r="C30">
-        <v>0.09963248781710013</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.06341730458233868</v>
+      </c>
+      <c r="D30">
+        <v>0.10216328055302</v>
+      </c>
+      <c r="E30">
+        <v>0.03268180099930704</v>
+      </c>
+      <c r="F30">
+        <v>-0.02102899796733599</v>
+      </c>
+      <c r="G30">
+        <v>0.002893759192925013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.03764113605265633</v>
+        <v>0.04301084984474626</v>
       </c>
       <c r="C31">
-        <v>0.02504277033040555</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.01448183523915399</v>
+      </c>
+      <c r="D31">
+        <v>0.02808669983240556</v>
+      </c>
+      <c r="E31">
+        <v>0.02095141095075258</v>
+      </c>
+      <c r="F31">
+        <v>-0.01421603659929709</v>
+      </c>
+      <c r="G31">
+        <v>-0.0225327980065696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.03155622032089352</v>
+        <v>0.03165567232983877</v>
       </c>
       <c r="C32">
-        <v>0.02536139570899778</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.01436663855141932</v>
+      </c>
+      <c r="D32">
+        <v>0.01946368918275405</v>
+      </c>
+      <c r="E32">
+        <v>0.05970473413989072</v>
+      </c>
+      <c r="F32">
+        <v>0.008396476517348558</v>
+      </c>
+      <c r="G32">
+        <v>0.02606886082129271</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07374094527986577</v>
+        <v>0.08770547197674897</v>
       </c>
       <c r="C33">
-        <v>0.05546628216511794</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.03423930622230079</v>
+      </c>
+      <c r="D33">
+        <v>0.06519942491861115</v>
+      </c>
+      <c r="E33">
+        <v>0.01091567344395749</v>
+      </c>
+      <c r="F33">
+        <v>-0.006214833383628751</v>
+      </c>
+      <c r="G33">
+        <v>-0.01845484135717309</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.04983272883370375</v>
+        <v>0.05656144798908953</v>
       </c>
       <c r="C34">
-        <v>0.0344535035878244</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.01804422133096582</v>
+      </c>
+      <c r="D34">
+        <v>0.0598894809339123</v>
+      </c>
+      <c r="E34">
+        <v>0.002686582177775919</v>
+      </c>
+      <c r="F34">
+        <v>-0.02658099610452704</v>
+      </c>
+      <c r="G34">
+        <v>-0.001415684393048869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.03638507143571407</v>
+        <v>0.03999278106070769</v>
       </c>
       <c r="C35">
-        <v>0.01418051174213649</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.005725005535303063</v>
+      </c>
+      <c r="D35">
+        <v>0.01160342963097885</v>
+      </c>
+      <c r="E35">
+        <v>0.02573092666435409</v>
+      </c>
+      <c r="F35">
+        <v>0.0005518662402551746</v>
+      </c>
+      <c r="G35">
+        <v>-0.01233850202411937</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01806003784093074</v>
+        <v>0.02334889758408302</v>
       </c>
       <c r="C36">
-        <v>0.01788848271482604</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.01198126616235232</v>
+      </c>
+      <c r="D36">
+        <v>0.02061245095345032</v>
+      </c>
+      <c r="E36">
+        <v>0.03276107966361174</v>
+      </c>
+      <c r="F36">
+        <v>-0.0208827718468657</v>
+      </c>
+      <c r="G36">
+        <v>-0.01333728415546584</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1095,54 +1539,114 @@
       <c r="C37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.03864367208927523</v>
+        <v>0.04114625272722149</v>
       </c>
       <c r="C38">
-        <v>0.01211443816475091</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>-0.002800584780458386</v>
+      </c>
+      <c r="D38">
+        <v>0.01134991908519776</v>
+      </c>
+      <c r="E38">
+        <v>0.0604428547216318</v>
+      </c>
+      <c r="F38">
+        <v>0.02055291312206912</v>
+      </c>
+      <c r="G38">
+        <v>0.01916390780637569</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08540868134015556</v>
+        <v>0.09975175715961351</v>
       </c>
       <c r="C39">
-        <v>0.08631320053555357</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.05603934199401196</v>
+      </c>
+      <c r="D39">
+        <v>0.08681951887205278</v>
+      </c>
+      <c r="E39">
+        <v>-0.01585554028631595</v>
+      </c>
+      <c r="F39">
+        <v>-0.01966167500264125</v>
+      </c>
+      <c r="G39">
+        <v>0.01963140040849674</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.06423871822694814</v>
+        <v>0.07168324409611228</v>
       </c>
       <c r="C40">
-        <v>0.05655165325015515</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.0352352577183569</v>
+      </c>
+      <c r="D40">
+        <v>0.01167760834573244</v>
+      </c>
+      <c r="E40">
+        <v>0.02696266430466847</v>
+      </c>
+      <c r="F40">
+        <v>0.04606249246468424</v>
+      </c>
+      <c r="G40">
+        <v>0.05659389122590231</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03844933150768374</v>
+        <v>0.043051890357717</v>
       </c>
       <c r="C41">
-        <v>0.01870807781834943</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.008510325179254473</v>
+      </c>
+      <c r="D41">
+        <v>0.04132821206386648</v>
+      </c>
+      <c r="E41">
+        <v>0.006834186413264095</v>
+      </c>
+      <c r="F41">
+        <v>0.006882673738972426</v>
+      </c>
+      <c r="G41">
+        <v>0.009069336522936578</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,32 +1654,68 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04116784425752645</v>
+        <v>0.05055573727369957</v>
       </c>
       <c r="C43">
-        <v>0.03814688851156094</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.02434431086519095</v>
+      </c>
+      <c r="D43">
+        <v>0.02989944212183765</v>
+      </c>
+      <c r="E43">
+        <v>0.01530901010469425</v>
+      </c>
+      <c r="F43">
+        <v>-0.01490936200597828</v>
+      </c>
+      <c r="G43">
+        <v>-0.009132794656150632</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.08760151036888603</v>
+        <v>0.09222037262073778</v>
       </c>
       <c r="C44">
-        <v>0.09585658206703319</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.06130774734401784</v>
+      </c>
+      <c r="D44">
+        <v>0.06290218402146713</v>
+      </c>
+      <c r="E44">
+        <v>0.09493147324543127</v>
+      </c>
+      <c r="F44">
+        <v>-0.06725121555419596</v>
+      </c>
+      <c r="G44">
+        <v>0.01181502496688024</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1183,76 +1723,160 @@
       <c r="C45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02711459784197717</v>
+        <v>0.0281424321117088</v>
       </c>
       <c r="C46">
-        <v>0.0188621245842125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.009980691280922297</v>
+      </c>
+      <c r="D46">
+        <v>0.03344172829607017</v>
+      </c>
+      <c r="E46">
+        <v>0.01703837271201124</v>
+      </c>
+      <c r="F46">
+        <v>-0.01934709888874839</v>
+      </c>
+      <c r="G46">
+        <v>0.007705378028150867</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02811342200751978</v>
+        <v>0.03132107533427062</v>
       </c>
       <c r="C47">
-        <v>0.0226971214644358</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.01391063157533493</v>
+      </c>
+      <c r="D47">
+        <v>0.01652012741805692</v>
+      </c>
+      <c r="E47">
+        <v>0.04808403573035837</v>
+      </c>
+      <c r="F47">
+        <v>-0.01750643692906692</v>
+      </c>
+      <c r="G47">
+        <v>-0.0251454549011373</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.02756581424369353</v>
+        <v>0.03140614694030627</v>
       </c>
       <c r="C48">
-        <v>0.02056194892056396</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.01190726282551249</v>
+      </c>
+      <c r="D48">
+        <v>0.0313964107649554</v>
+      </c>
+      <c r="E48">
+        <v>0.0431630062454297</v>
+      </c>
+      <c r="F48">
+        <v>-0.01875902539787837</v>
+      </c>
+      <c r="G48">
+        <v>-0.002548832875490742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1495473469935608</v>
+        <v>0.1761307823368716</v>
       </c>
       <c r="C49">
-        <v>0.09828509779160999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>-0.05809773971127809</v>
+      </c>
+      <c r="D49">
+        <v>0.01031716717424618</v>
+      </c>
+      <c r="E49">
+        <v>-0.1329216989914284</v>
+      </c>
+      <c r="F49">
+        <v>-0.01835254950120572</v>
+      </c>
+      <c r="G49">
+        <v>-0.05655081362965259</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03268688734006719</v>
+        <v>0.04113678883372932</v>
       </c>
       <c r="C50">
-        <v>0.02769862516694252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.02142638969240637</v>
+      </c>
+      <c r="D50">
+        <v>0.03774802573812577</v>
+      </c>
+      <c r="E50">
+        <v>0.04133512851893242</v>
+      </c>
+      <c r="F50">
+        <v>-0.02855490029701518</v>
+      </c>
+      <c r="G50">
+        <v>-0.02169103771229204</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.02361142198949679</v>
+        <v>0.02548197769781596</v>
       </c>
       <c r="C51">
-        <v>0.01747063436397151</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>-0.009120478306065233</v>
+      </c>
+      <c r="D51">
+        <v>0.02735279724480036</v>
+      </c>
+      <c r="E51">
+        <v>0.01269645384720931</v>
+      </c>
+      <c r="F51">
+        <v>-0.005852398462370194</v>
+      </c>
+      <c r="G51">
+        <v>0.007925945161170175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1260,54 +1884,114 @@
       <c r="C52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.138039788277198</v>
+        <v>0.1590382617888153</v>
       </c>
       <c r="C53">
-        <v>0.1045927585559232</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>-0.06870565835703049</v>
+      </c>
+      <c r="D53">
+        <v>0.02344419135617703</v>
+      </c>
+      <c r="E53">
+        <v>-0.03932716938403487</v>
+      </c>
+      <c r="F53">
+        <v>-0.02217359817852478</v>
+      </c>
+      <c r="G53">
+        <v>0.0004853747604229413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.05110232592189978</v>
+        <v>0.05583231711678169</v>
       </c>
       <c r="C54">
-        <v>0.02892612679239799</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.0137964893955339</v>
+      </c>
+      <c r="D54">
+        <v>0.03654980288225253</v>
+      </c>
+      <c r="E54">
+        <v>0.04205193032678272</v>
+      </c>
+      <c r="F54">
+        <v>-0.01636525365956879</v>
+      </c>
+      <c r="G54">
+        <v>-0.001984755579478594</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.09258738875278154</v>
+        <v>0.1007283879474892</v>
       </c>
       <c r="C55">
-        <v>0.06661219087919705</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.04210361601367203</v>
+      </c>
+      <c r="D55">
+        <v>0.03231431254942255</v>
+      </c>
+      <c r="E55">
+        <v>0.008270942733644699</v>
+      </c>
+      <c r="F55">
+        <v>-0.02480792505330292</v>
+      </c>
+      <c r="G55">
+        <v>0.00502824795645806</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1348563152176341</v>
+        <v>0.1575007020046666</v>
       </c>
       <c r="C56">
-        <v>0.1134522107273549</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>-0.07731000410909895</v>
+      </c>
+      <c r="D56">
+        <v>0.01971121909650593</v>
+      </c>
+      <c r="E56">
+        <v>-0.03905251404634129</v>
+      </c>
+      <c r="F56">
+        <v>-0.05203528067104016</v>
+      </c>
+      <c r="G56">
+        <v>-0.01514314665870996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,428 +1999,896 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.113542963974132</v>
+        <v>0.1040065848013446</v>
       </c>
       <c r="C58">
-        <v>0.03431859180562497</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>0.003057288122276182</v>
+      </c>
+      <c r="D58">
+        <v>0.06006562892354628</v>
+      </c>
+      <c r="E58">
+        <v>0.1863671144981462</v>
+      </c>
+      <c r="F58">
+        <v>-0.04070740751584818</v>
+      </c>
+      <c r="G58">
+        <v>-0.06268225382336869</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.102414998715982</v>
+        <v>0.1463545079134707</v>
       </c>
       <c r="C59">
-        <v>0.08876930136389735</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>-0.08718408438709639</v>
+      </c>
+      <c r="D59">
+        <v>-0.3509793535320692</v>
+      </c>
+      <c r="E59">
+        <v>0.04995063768019357</v>
+      </c>
+      <c r="F59">
+        <v>0.02079242196386608</v>
+      </c>
+      <c r="G59">
+        <v>-0.02629710124693903</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1799369048974321</v>
+        <v>0.2144684143937667</v>
       </c>
       <c r="C60">
-        <v>0.1232265741070201</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.0820056796994859</v>
+      </c>
+      <c r="D60">
+        <v>0.01378866606771314</v>
+      </c>
+      <c r="E60">
+        <v>-0.07180879719957996</v>
+      </c>
+      <c r="F60">
+        <v>-0.03688004955428403</v>
+      </c>
+      <c r="G60">
+        <v>0.02934945441129411</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.07391331284409212</v>
+        <v>0.08443573757722105</v>
       </c>
       <c r="C61">
-        <v>0.06296972163343552</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.03972857372492176</v>
+      </c>
+      <c r="D61">
+        <v>0.06328009920567931</v>
+      </c>
+      <c r="E61">
+        <v>-0.01641334527643407</v>
+      </c>
+      <c r="F61">
+        <v>-0.01028531594317384</v>
+      </c>
+      <c r="G61">
+        <v>-0.01826104076978141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1121408351812844</v>
+        <v>0.1362493356400082</v>
       </c>
       <c r="C62">
-        <v>0.08453533952414573</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>-0.05932616556261339</v>
+      </c>
+      <c r="D62">
+        <v>0.02572021312250519</v>
+      </c>
+      <c r="E62">
+        <v>-0.05662971162307117</v>
+      </c>
+      <c r="F62">
+        <v>-0.02078375262897977</v>
+      </c>
+      <c r="G62">
+        <v>0.02943700275331746</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04947958961693039</v>
+        <v>0.05200929920826238</v>
       </c>
       <c r="C63">
-        <v>0.0304930251868602</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0174213233733168</v>
+      </c>
+      <c r="D63">
+        <v>0.03073930523191412</v>
+      </c>
+      <c r="E63">
+        <v>0.04996016508328745</v>
+      </c>
+      <c r="F63">
+        <v>-0.01600025910170242</v>
+      </c>
+      <c r="G63">
+        <v>0.02637493039001875</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.104605230377667</v>
+        <v>0.1115812036230266</v>
       </c>
       <c r="C64">
-        <v>0.05108124200734344</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.02254375190328993</v>
+      </c>
+      <c r="D64">
+        <v>0.0468595780106986</v>
+      </c>
+      <c r="E64">
+        <v>0.02638135186808513</v>
+      </c>
+      <c r="F64">
+        <v>-0.0539303366529666</v>
+      </c>
+      <c r="G64">
+        <v>0.02263023173132567</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1076458764476813</v>
+        <v>0.1238656768118256</v>
       </c>
       <c r="C65">
-        <v>0.06969607202688807</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>-0.04473433751730239</v>
+      </c>
+      <c r="D65">
+        <v>0.01500891302608563</v>
+      </c>
+      <c r="E65">
+        <v>-0.002087635007740177</v>
+      </c>
+      <c r="F65">
+        <v>-0.05747157531019344</v>
+      </c>
+      <c r="G65">
+        <v>0.02381681395928376</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.1319671889207381</v>
+        <v>0.150924172037996</v>
       </c>
       <c r="C66">
-        <v>0.0969479682160065</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.05710526342413569</v>
+      </c>
+      <c r="D66">
+        <v>0.1203978353968257</v>
+      </c>
+      <c r="E66">
+        <v>-0.05915234601230566</v>
+      </c>
+      <c r="F66">
+        <v>-0.04007467257941855</v>
+      </c>
+      <c r="G66">
+        <v>0.01529888540816653</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.06929981139106015</v>
+        <v>0.07536718155684292</v>
       </c>
       <c r="C67">
-        <v>0.02628121112955242</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.009456374571259264</v>
+      </c>
+      <c r="D67">
+        <v>0.02467881197991672</v>
+      </c>
+      <c r="E67">
+        <v>0.02615002574808474</v>
+      </c>
+      <c r="F67">
+        <v>0.001855683393285214</v>
+      </c>
+      <c r="G67">
+        <v>-0.002819585081673329</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.05242100132205756</v>
+        <v>0.06862011673725855</v>
       </c>
       <c r="C68">
-        <v>0.04775177533823948</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>-0.04814246476479407</v>
+      </c>
+      <c r="D68">
+        <v>-0.2659052591469528</v>
+      </c>
+      <c r="E68">
+        <v>0.0505613277944613</v>
+      </c>
+      <c r="F68">
+        <v>-0.01230429623325214</v>
+      </c>
+      <c r="G68">
+        <v>-0.00572996492814385</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.04892389314788064</v>
+        <v>0.05081279442209402</v>
       </c>
       <c r="C69">
-        <v>0.02957120506219626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01228166492275768</v>
+      </c>
+      <c r="D69">
+        <v>0.03583223616603033</v>
+      </c>
+      <c r="E69">
+        <v>0.01655399617895477</v>
+      </c>
+      <c r="F69">
+        <v>-0.00145023120809806</v>
+      </c>
+      <c r="G69">
+        <v>-0.003422551464370038</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.004608048175910543</v>
+        <v>0.01479432674211864</v>
       </c>
       <c r="C70">
-        <v>-0.00229592301040224</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>0.000733202991425123</v>
+      </c>
+      <c r="D70">
+        <v>-0.006048011140307201</v>
+      </c>
+      <c r="E70">
+        <v>-0.0243611438690279</v>
+      </c>
+      <c r="F70">
+        <v>-0.01139184767794846</v>
+      </c>
+      <c r="G70">
+        <v>-0.01517848255222926</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.05454784556149318</v>
+        <v>0.0718515041672181</v>
       </c>
       <c r="C71">
-        <v>0.04757146575905103</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>-0.04771951480897586</v>
+      </c>
+      <c r="D71">
+        <v>-0.298424738312222</v>
+      </c>
+      <c r="E71">
+        <v>0.04579818430376641</v>
+      </c>
+      <c r="F71">
+        <v>-0.03369421581475229</v>
+      </c>
+      <c r="G71">
+        <v>-0.0009594178945739206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1281461255943319</v>
+        <v>0.1518849069131876</v>
       </c>
       <c r="C72">
-        <v>0.07939024283100338</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.04920738188894788</v>
+      </c>
+      <c r="D72">
+        <v>0.01015302821915968</v>
+      </c>
+      <c r="E72">
+        <v>-0.09311925986923252</v>
+      </c>
+      <c r="F72">
+        <v>0.1629377315524188</v>
+      </c>
+      <c r="G72">
+        <v>0.1215232165308083</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2406704518670724</v>
+        <v>0.2708871750728786</v>
       </c>
       <c r="C73">
-        <v>0.1474149075849691</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.08444356106767062</v>
+      </c>
+      <c r="D73">
+        <v>0.06865506784160864</v>
+      </c>
+      <c r="E73">
+        <v>-0.1877996418211246</v>
+      </c>
+      <c r="F73">
+        <v>-0.06012435671192183</v>
+      </c>
+      <c r="G73">
+        <v>-0.2059558943095651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.07402111702626149</v>
+        <v>0.08968884805356526</v>
       </c>
       <c r="C74">
-        <v>0.08354160668316363</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.062560730969088</v>
+      </c>
+      <c r="D74">
+        <v>0.03380139466759413</v>
+      </c>
+      <c r="E74">
+        <v>-0.003659479944170476</v>
+      </c>
+      <c r="F74">
+        <v>0.001280612371329835</v>
+      </c>
+      <c r="G74">
+        <v>-0.02545032658025874</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.09372192461360425</v>
+        <v>0.1052557018548169</v>
       </c>
       <c r="C75">
-        <v>0.06882212417929424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.0389808843307857</v>
+      </c>
+      <c r="D75">
+        <v>0.01564017751570701</v>
+      </c>
+      <c r="E75">
+        <v>0.004598156412890632</v>
+      </c>
+      <c r="F75">
+        <v>-0.06447334277631733</v>
+      </c>
+      <c r="G75">
+        <v>-0.01363556795172856</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.1153236732193356</v>
+        <v>0.1324450657319799</v>
       </c>
       <c r="C76">
-        <v>0.1030731376914809</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>-0.06957185756285399</v>
+      </c>
+      <c r="D76">
+        <v>0.05977715880947473</v>
+      </c>
+      <c r="E76">
+        <v>0.004946296993450409</v>
+      </c>
+      <c r="F76">
+        <v>-0.06743387531139397</v>
+      </c>
+      <c r="G76">
+        <v>0.01079812763565434</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.1099343214103153</v>
+        <v>0.1157410987865365</v>
       </c>
       <c r="C77">
-        <v>0.06168088317596597</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.02570537229414949</v>
+      </c>
+      <c r="D77">
+        <v>0.02390168100527978</v>
+      </c>
+      <c r="E77">
+        <v>-0.02067708103662229</v>
+      </c>
+      <c r="F77">
+        <v>-0.2397975371501657</v>
+      </c>
+      <c r="G77">
+        <v>0.879317671498656</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.08199957053121608</v>
+        <v>0.1043217702331741</v>
       </c>
       <c r="C78">
-        <v>0.05057608841424562</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.03224383460274181</v>
+      </c>
+      <c r="D78">
+        <v>0.07533436958144007</v>
+      </c>
+      <c r="E78">
+        <v>0.05437183834154364</v>
+      </c>
+      <c r="F78">
+        <v>0.003587229881115654</v>
+      </c>
+      <c r="G78">
+        <v>0.02086632438707752</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1333302583611507</v>
+        <v>0.1504714878694473</v>
       </c>
       <c r="C79">
-        <v>0.1053267841963481</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.06396660207108422</v>
+      </c>
+      <c r="D79">
+        <v>0.02742034897916653</v>
+      </c>
+      <c r="E79">
+        <v>-0.02470076130381954</v>
+      </c>
+      <c r="F79">
+        <v>-0.03774160822576639</v>
+      </c>
+      <c r="G79">
+        <v>-0.01166529367771</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0410446632890202</v>
+        <v>0.04004592581194918</v>
       </c>
       <c r="C80">
-        <v>0.02203818241770829</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.008931569346772431</v>
+      </c>
+      <c r="D80">
+        <v>0.02804845678171398</v>
+      </c>
+      <c r="E80">
+        <v>0.001007463235280012</v>
+      </c>
+      <c r="F80">
+        <v>0.0217333104664582</v>
+      </c>
+      <c r="G80">
+        <v>-0.03814909459312962</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1069868249914956</v>
+        <v>0.1203070733850465</v>
       </c>
       <c r="C81">
-        <v>0.08395055089516197</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>-0.05105888682576434</v>
+      </c>
+      <c r="D81">
+        <v>0.03330887035164833</v>
+      </c>
+      <c r="E81">
+        <v>-0.005664517520291687</v>
+      </c>
+      <c r="F81">
+        <v>-0.03613297569000648</v>
+      </c>
+      <c r="G81">
+        <v>-0.05087997923273777</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1127526188202129</v>
+        <v>0.1248538649327518</v>
       </c>
       <c r="C82">
-        <v>0.09514075938851467</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>-0.06073810547150708</v>
+      </c>
+      <c r="D82">
+        <v>0.0383400600694208</v>
+      </c>
+      <c r="E82">
+        <v>-0.02958778586077313</v>
+      </c>
+      <c r="F82">
+        <v>-0.05458559485332126</v>
+      </c>
+      <c r="G82">
+        <v>-0.03475541785716978</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.07158065332006626</v>
+        <v>0.0727541950376471</v>
       </c>
       <c r="C83">
-        <v>0.02263123363445205</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>0.001931192970851421</v>
+      </c>
+      <c r="D83">
+        <v>0.04667609133339808</v>
+      </c>
+      <c r="E83">
+        <v>0.005664582947664719</v>
+      </c>
+      <c r="F83">
+        <v>-0.005992171987434957</v>
+      </c>
+      <c r="G83">
+        <v>-0.07396576266859609</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.02570576174884873</v>
+        <v>0.03278977190233975</v>
       </c>
       <c r="C84">
-        <v>0.02088326583662652</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.01715212796292408</v>
+      </c>
+      <c r="D84">
+        <v>0.0177808474927397</v>
+      </c>
+      <c r="E84">
+        <v>0.01985897717727355</v>
+      </c>
+      <c r="F84">
+        <v>0.0414707982852952</v>
+      </c>
+      <c r="G84">
+        <v>-0.05592480775307983</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1177802225362566</v>
+        <v>0.1212996545917807</v>
       </c>
       <c r="C85">
-        <v>0.08243938697421874</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.04279882522777138</v>
+      </c>
+      <c r="D85">
+        <v>0.0306272109249031</v>
+      </c>
+      <c r="E85">
+        <v>0.009473322144044293</v>
+      </c>
+      <c r="F85">
+        <v>-0.08406114237313844</v>
+      </c>
+      <c r="G85">
+        <v>-0.01189811371545446</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.04383487136298993</v>
+        <v>0.04594698059922894</v>
       </c>
       <c r="C86">
-        <v>0.02209660103596296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.007517562742454985</v>
+      </c>
+      <c r="D86">
+        <v>0.0173511207770081</v>
+      </c>
+      <c r="E86">
+        <v>0.04495286934999277</v>
+      </c>
+      <c r="F86">
+        <v>-0.006736371340377596</v>
+      </c>
+      <c r="G86">
+        <v>-0.0162025351473117</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.1133935856788579</v>
+        <v>0.119820362296023</v>
       </c>
       <c r="C87">
-        <v>0.08818542451904549</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0468854169764673</v>
+      </c>
+      <c r="D87">
+        <v>0.07259011850198697</v>
+      </c>
+      <c r="E87">
+        <v>0.01876469021682767</v>
+      </c>
+      <c r="F87">
+        <v>-0.02605649488421158</v>
+      </c>
+      <c r="G87">
+        <v>0.1050680441910139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05237853182127009</v>
+        <v>0.05774980830503087</v>
       </c>
       <c r="C88">
-        <v>0.04249461591468921</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.02525668333217278</v>
+      </c>
+      <c r="D88">
+        <v>0.02590358487374939</v>
+      </c>
+      <c r="E88">
+        <v>0.01945600417447633</v>
+      </c>
+      <c r="F88">
+        <v>-0.01158366382004746</v>
+      </c>
+      <c r="G88">
+        <v>0.01686231339893201</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.07237060988972216</v>
+        <v>0.1065853876819445</v>
       </c>
       <c r="C89">
-        <v>0.07597327261550826</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>-0.07769953571417726</v>
+      </c>
+      <c r="D89">
+        <v>-0.3285186019133717</v>
+      </c>
+      <c r="E89">
+        <v>0.07993039930862285</v>
+      </c>
+      <c r="F89">
+        <v>-0.06389027072211356</v>
+      </c>
+      <c r="G89">
+        <v>-0.02100801509524952</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.06594397813358374</v>
+        <v>0.08813754969109115</v>
       </c>
       <c r="C90">
-        <v>0.06914739725933318</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>-0.06596433599260941</v>
+      </c>
+      <c r="D90">
+        <v>-0.3077034792890772</v>
+      </c>
+      <c r="E90">
+        <v>0.06927167522287821</v>
+      </c>
+      <c r="F90">
+        <v>0.01778866728147974</v>
+      </c>
+      <c r="G90">
+        <v>-0.01712697964707533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.07601213159489813</v>
+        <v>0.08700102920076938</v>
       </c>
       <c r="C91">
-        <v>0.06678113403327185</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>-0.04327537675754537</v>
+      </c>
+      <c r="D91">
+        <v>0.02953731681997458</v>
+      </c>
+      <c r="E91">
+        <v>0.008602643801576128</v>
+      </c>
+      <c r="F91">
+        <v>-0.01265062695761368</v>
+      </c>
+      <c r="G91">
+        <v>-0.02632134976663305</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.08001218294344516</v>
+        <v>0.1043422219930017</v>
       </c>
       <c r="C92">
-        <v>0.06979277073626386</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>-0.06607834201265086</v>
+      </c>
+      <c r="D92">
+        <v>-0.3308295984292715</v>
+      </c>
+      <c r="E92">
+        <v>0.04403892816574038</v>
+      </c>
+      <c r="F92">
+        <v>-0.02785552267182893</v>
+      </c>
+      <c r="G92">
+        <v>-0.001622421240220451</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.0587921431051884</v>
+        <v>0.08529605244322966</v>
       </c>
       <c r="C93">
-        <v>0.06519603446029666</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>-0.06681593655562866</v>
+      </c>
+      <c r="D93">
+        <v>-0.3004944509942191</v>
+      </c>
+      <c r="E93">
+        <v>0.03872625838571412</v>
+      </c>
+      <c r="F93">
+        <v>-0.03621782655124043</v>
+      </c>
+      <c r="G93">
+        <v>0.006731865385878157</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1219135278230006</v>
+        <v>0.1256236630388023</v>
       </c>
       <c r="C94">
-        <v>0.08036546632813685</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03658155217036045</v>
+      </c>
+      <c r="D94">
+        <v>0.05695704517717499</v>
+      </c>
+      <c r="E94">
+        <v>-0.02898844443696786</v>
+      </c>
+      <c r="F94">
+        <v>-0.04079304847863763</v>
+      </c>
+      <c r="G94">
+        <v>-0.02754438490106502</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1131809653380759</v>
+        <v>0.120142440012025</v>
       </c>
       <c r="C95">
-        <v>0.05827318361532834</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.0236853064814109</v>
+      </c>
+      <c r="D95">
+        <v>0.05239415777052333</v>
+      </c>
+      <c r="E95">
+        <v>-0.007578198358734678</v>
+      </c>
+      <c r="F95">
+        <v>-0.03371285882112417</v>
+      </c>
+      <c r="G95">
+        <v>-0.008183922253904585</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -1744,43 +2896,91 @@
       <c r="C96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.1915349970111675</v>
+        <v>0.2193104360234808</v>
       </c>
       <c r="C97">
-        <v>0.08301853727673643</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.03844527215436896</v>
+      </c>
+      <c r="D97">
+        <v>-0.01638740513880576</v>
+      </c>
+      <c r="E97">
+        <v>-0.1490793206100043</v>
+      </c>
+      <c r="F97">
+        <v>0.8922170544466359</v>
+      </c>
+      <c r="G97">
+        <v>0.1868182777035775</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.2299620369491326</v>
+        <v>0.2604277913758165</v>
       </c>
       <c r="C98">
-        <v>0.1276689749365302</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.06419598141996007</v>
+      </c>
+      <c r="D98">
+        <v>0.04606102893122578</v>
+      </c>
+      <c r="E98">
+        <v>-0.1532589472497037</v>
+      </c>
+      <c r="F98">
+        <v>-0.02359062922148914</v>
+      </c>
+      <c r="G98">
+        <v>-0.2797851614216269</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.5805899800081681</v>
+        <v>0.3651642581834896</v>
       </c>
       <c r="C99">
-        <v>-0.8047054993479796</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>0.9199703511185106</v>
+      </c>
+      <c r="D99">
+        <v>-0.0746695813438517</v>
+      </c>
+      <c r="E99">
+        <v>0.04246602290041899</v>
+      </c>
+      <c r="F99">
+        <v>-0.03915217457544675</v>
+      </c>
+      <c r="G99">
+        <v>-0.009659598020936638</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -1788,21 +2988,45 @@
       <c r="C100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.03478904110665332</v>
+        <v>0.04268182862828783</v>
       </c>
       <c r="C101">
-        <v>0.03216436926046481</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.02442037797083157</v>
+      </c>
+      <c r="D101">
+        <v>0.01005230570918184</v>
+      </c>
+      <c r="E101">
+        <v>0.03577046436993806</v>
+      </c>
+      <c r="F101">
+        <v>-0.01280945050954293</v>
+      </c>
+      <c r="G101">
+        <v>-0.01199994855924713</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
